--- a/data/1212.xlsx
+++ b/data/1212.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11424" windowWidth="20592" xWindow="348" yWindow="756"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9564" windowWidth="18468"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
+  <fonts count="23">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -27,14 +27,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -43,13 +35,163 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -58,12 +200,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.5999938962981048"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,54 +414,344 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="22" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="18" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="26" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -418,7 +1036,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -430,226 +1047,225 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="6" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="6" width="33.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="12" width="18.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="6" width="56.6640625"/>
-    <col customWidth="1" max="7" min="7" style="6" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="6" width="43.5546875"/>
-    <col customWidth="1" max="9" min="9" style="6" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="32.5546875"/>
-    <col customWidth="1" max="12" min="11" style="6" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="6" width="68.77734375"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="6" width="44.6640625"/>
-    <col customWidth="1" max="16" min="15" style="6" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="17" style="6" width="8.88671875"/>
+    <col customWidth="1" max="3" min="1" style="2" width="8.888888888888889"/>
+    <col customWidth="1" max="4" min="4" style="2" width="33.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="3" width="18.3333333333333"/>
+    <col customWidth="1" max="6" min="6" style="2" width="56.6666666666667"/>
+    <col customWidth="1" max="7" min="7" style="2" width="8.888888888888889"/>
+    <col customWidth="1" max="8" min="8" style="2" width="43.5555555555556"/>
+    <col customWidth="1" max="9" min="9" style="2" width="8.888888888888889"/>
+    <col customWidth="1" max="10" min="10" style="2" width="32.5555555555556"/>
+    <col customWidth="1" max="12" min="11" style="2" width="8.888888888888889"/>
+    <col customWidth="1" max="13" min="13" style="2" width="68.7777777777778"/>
+    <col customWidth="1" max="14" min="14" style="2" width="44.6666666666667"/>
+    <col customWidth="1" max="16384" min="15" style="2" width="8.888888888888889"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="4">
-      <c r="A1" s="1" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>项目模块</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>用例id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>用例名</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>用例描述</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>路径</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>请求方法</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>请求头</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>请求数据</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>上传的文件</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>初始化sql</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>被依赖保存全局变量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>断言（多个断言用英文分号分割）</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>返回报文</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="4">
-      <c r="A2" s="1" t="inlineStr">
+    <row customFormat="1" r="2" s="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>case_num</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>case_name</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>headers</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>init_sql</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>globalVariable</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>assertRes</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>actualResults</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="100.8" r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>case_1</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>test_msg_queryLongTextORExcept</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>获取长文列表</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>https://${ip1}/msg/community/manager/queryLongTextORExcept</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>{"content-type": "application/json"}</t>
         </is>
@@ -665,14 +1281,14 @@
 }</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="8" t="inlineStr">
         <is>
           <t>id=$.model[${size}].id;circleType=$.model[${size}].circleType;</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>$.resultCode=0000;</t>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>$.resultCode=${id};</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -682,40 +1298,40 @@
       </c>
     </row>
     <row customHeight="1" ht="57.6" r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>case_2</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>tste_msg_getMessageDetail</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>进入长文帖子详情</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>https://${ip1}/msg/community/manager/getMessageDetail</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>{"content-type": "application/json"}</t>
         </is>
@@ -728,7 +1344,7 @@
 }</t>
         </is>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="N4" s="8" t="inlineStr">
         <is>
           <t>$.model.circleType=1|2|4;</t>
         </is>
@@ -740,40 +1356,40 @@
       </c>
     </row>
     <row customHeight="1" ht="115.2" r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>case_3</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>test_msg_queryLongTextORExcept</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>获取我的关注</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>https://${ip1}/msg/community/manager/queryLongTextORExcept</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>{"content-type": "application/json"}</t>
         </is>
@@ -790,12 +1406,12 @@
 }</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="8" t="inlineStr">
         <is>
           <t>id=$.model[${size}].id;circleType=$.model[${size}].circleType;</t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="N5" s="8" t="inlineStr">
         <is>
           <t>$.resultCode=0000;</t>
         </is>
@@ -807,40 +1423,40 @@
       </c>
     </row>
     <row customHeight="1" ht="115.2" r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>case_4</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>test_msg_queryAnswerList</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>获取回帖列表</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>https://${ip1}/msg/community/manager/queryAnswerList</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="11" t="inlineStr">
         <is>
           <t>{"content-type": "application/json"}</t>
         </is>
@@ -857,7 +1473,7 @@
 }</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="8" t="inlineStr">
         <is>
           <t>$.resultCode=0000;</t>
         </is>
@@ -871,6 +1487,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>